--- a/Client/Assets/11. GameData/Event.xlsx
+++ b/Client/Assets/11. GameData/Event.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F63571-6316-4D5D-B291-C3B9B1DF1884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE70B82B-0EFA-42A1-B3B0-16CE3EB25120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{ECCAA0A3-4D93-434A-9C04-827ECA6EE958}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECCAA0A3-4D93-434A-9C04-827ECA6EE958}"/>
   </bookViews>
   <sheets>
     <sheet name="Event_Main" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,12 +188,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -610,18 +604,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082603A4-F435-43A1-B5E5-378E6AF1F3A7}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" customWidth="1"/>
-    <col min="2" max="2" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -639,7 +633,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>31001</v>
       </c>
@@ -657,7 +651,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>32001</v>
       </c>
@@ -675,7 +669,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -683,7 +677,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -691,7 +685,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -699,7 +693,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -707,7 +701,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -715,7 +709,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -723,7 +717,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -731,7 +725,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -739,7 +733,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -747,7 +741,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -755,7 +749,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -763,7 +757,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -771,7 +765,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -779,7 +773,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -787,7 +781,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -795,7 +789,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -803,7 +797,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -811,7 +805,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -819,7 +813,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -827,7 +821,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -835,7 +829,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -854,20 +848,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87E062B-3F0F-4AC7-84AE-7F03EA04F95B}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -893,7 +887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>132001</v>
       </c>
@@ -919,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>132002</v>
       </c>
@@ -945,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>132003</v>
       </c>
@@ -971,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>132004</v>
       </c>
@@ -997,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>132005</v>
       </c>
@@ -1023,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>

--- a/Client/Assets/11. GameData/Event.xlsx
+++ b/Client/Assets/11. GameData/Event.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE70B82B-0EFA-42A1-B3B0-16CE3EB25120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F83CF02-BACC-4E7B-A8B4-64FA49C9998E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECCAA0A3-4D93-434A-9C04-827ECA6EE958}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17856" windowHeight="11820" activeTab="1" xr2:uid="{ECCAA0A3-4D93-434A-9C04-827ECA6EE958}"/>
   </bookViews>
   <sheets>
     <sheet name="Event_Main" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -236,6 +236,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,18 +610,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082603A4-F435-43A1-B5E5-378E6AF1F3A7}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -633,7 +639,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>31001</v>
       </c>
@@ -651,7 +657,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>32001</v>
       </c>
@@ -669,7 +675,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -677,7 +683,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -685,7 +691,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -693,7 +699,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -701,7 +707,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -709,7 +715,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -717,7 +723,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -725,7 +731,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -733,7 +739,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -741,7 +747,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -749,7 +755,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -757,7 +763,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -765,7 +771,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -773,7 +779,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -781,7 +787,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -789,7 +795,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -797,7 +803,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -805,7 +811,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -813,7 +819,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -821,7 +827,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -829,7 +835,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -848,20 +854,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87E062B-3F0F-4AC7-84AE-7F03EA04F95B}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -887,7 +893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>132001</v>
       </c>
@@ -913,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>132002</v>
       </c>
@@ -939,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>132003</v>
       </c>
@@ -949,11 +955,11 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>100001</v>
+      <c r="D4" s="6">
+        <v>201007</v>
       </c>
       <c r="E4" s="1">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="F4" s="5">
         <v>45573</v>
@@ -965,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>132004</v>
       </c>
@@ -976,10 +982,10 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="F5" s="5">
         <v>45573</v>
@@ -991,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>132005</v>
       </c>
@@ -1002,10 +1008,10 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>331002</v>
+        <v>100002</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F6" s="5">
         <v>45573</v>
@@ -1017,7 +1023,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>132006</v>
+      </c>
+      <c r="B7" s="1">
+        <v>32001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>331002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>45573</v>
+      </c>
+      <c r="G7" s="5">
+        <v>72686</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>132007</v>
+      </c>
+      <c r="B8" s="1">
+        <v>32001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>322002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>45573</v>
+      </c>
+      <c r="G8" s="5">
+        <v>72686</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>

--- a/Client/Assets/11. GameData/Event.xlsx
+++ b/Client/Assets/11. GameData/Event.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F83CF02-BACC-4E7B-A8B4-64FA49C9998E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD44483-E74F-490C-9A67-7D8594182B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17856" windowHeight="11820" activeTab="1" xr2:uid="{ECCAA0A3-4D93-434A-9C04-827ECA6EE958}"/>
+    <workbookView xWindow="-26280" yWindow="1155" windowWidth="22680" windowHeight="13785" activeTab="1" xr2:uid="{ECCAA0A3-4D93-434A-9C04-827ECA6EE958}"/>
   </bookViews>
   <sheets>
     <sheet name="Event_Main" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,10 +137,6 @@
   </si>
   <si>
     <t>Event_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -218,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -236,12 +232,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,19 +601,19 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -639,7 +629,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>31001</v>
       </c>
@@ -657,7 +647,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>32001</v>
       </c>
@@ -675,7 +665,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -683,7 +673,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -691,7 +681,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -699,7 +689,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -707,7 +697,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -715,7 +705,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -723,7 +713,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -731,7 +721,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -739,7 +729,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -747,7 +737,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -755,7 +745,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -763,7 +753,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -771,7 +761,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -779,7 +769,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -787,7 +777,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -795,7 +785,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -803,7 +793,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -811,7 +801,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -819,7 +809,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -827,7 +817,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -835,7 +825,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -852,22 +842,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87E062B-3F0F-4AC7-84AE-7F03EA04F95B}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -890,10 +880,10 @@
         <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>132001</v>
       </c>
@@ -916,10 +906,11 @@
         <v>72686</v>
       </c>
       <c r="H2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>132002</v>
       </c>
@@ -942,10 +933,11 @@
         <v>72686</v>
       </c>
       <c r="H3" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>132003</v>
       </c>
@@ -955,7 +947,7 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>201007</v>
       </c>
       <c r="E4" s="1">
@@ -968,10 +960,11 @@
         <v>72686</v>
       </c>
       <c r="H4" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>132004</v>
       </c>
@@ -994,10 +987,11 @@
         <v>72686</v>
       </c>
       <c r="H5" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>132005</v>
       </c>
@@ -1020,10 +1014,11 @@
         <v>72686</v>
       </c>
       <c r="H6" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>132006</v>
       </c>
@@ -1033,7 +1028,7 @@
       <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>331002</v>
       </c>
       <c r="E7" s="1">
@@ -1046,10 +1041,11 @@
         <v>72686</v>
       </c>
       <c r="H7" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>132007</v>
       </c>
@@ -1059,7 +1055,7 @@
       <c r="C8" s="1">
         <v>7</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>322002</v>
       </c>
       <c r="E8" s="1">
@@ -1072,12 +1068,8 @@
         <v>72686</v>
       </c>
       <c r="H8" t="b">
+        <f>FALSE</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/11. GameData/Event.xlsx
+++ b/Client/Assets/11. GameData/Event.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\11. GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD44483-E74F-490C-9A67-7D8594182B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58D8F04-FC78-4230-B16E-9AFBF6BCDC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26280" yWindow="1155" windowWidth="22680" windowHeight="13785" activeTab="1" xr2:uid="{ECCAA0A3-4D93-434A-9C04-827ECA6EE958}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ECCAA0A3-4D93-434A-9C04-827ECA6EE958}"/>
   </bookViews>
   <sheets>
     <sheet name="Event_Main" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,8 +185,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,6 +245,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,18 +622,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082603A4-F435-43A1-B5E5-378E6AF1F3A7}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -629,7 +651,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>31001</v>
       </c>
@@ -637,7 +659,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="5">
         <v>45573</v>
@@ -647,7 +669,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>32001</v>
       </c>
@@ -665,7 +687,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -673,7 +695,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -681,7 +703,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -689,7 +711,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -697,7 +719,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -705,7 +727,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -713,7 +735,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -721,7 +743,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -729,7 +751,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -737,7 +759,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -745,7 +767,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -753,7 +775,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -761,7 +783,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -769,7 +791,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -777,7 +799,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -785,7 +807,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -793,7 +815,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -801,7 +823,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -809,7 +831,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -817,7 +839,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -825,7 +847,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -842,22 +864,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87E062B-3F0F-4AC7-84AE-7F03EA04F95B}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -883,21 +905,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>132001</v>
+        <v>131001</v>
       </c>
       <c r="B2" s="1">
-        <v>32001</v>
-      </c>
-      <c r="C2" s="1">
+        <v>31001</v>
+      </c>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>100001</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3000</v>
+      <c r="D2" s="8">
+        <v>100002</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1000</v>
       </c>
       <c r="F2" s="5">
         <v>45573</v>
@@ -905,26 +927,26 @@
       <c r="G2" s="5">
         <v>72686</v>
       </c>
-      <c r="H2" t="b">
+      <c r="H2" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>132002</v>
+        <v>132001</v>
       </c>
       <c r="B3" s="1">
         <v>32001</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="E3" s="1">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="F3" s="5">
         <v>45573</v>
@@ -937,21 +959,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>132003</v>
+        <v>132002</v>
       </c>
       <c r="B4" s="1">
         <v>32001</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>201007</v>
+        <v>100002</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F4" s="5">
         <v>45573</v>
@@ -964,21 +986,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>132004</v>
+        <v>132003</v>
       </c>
       <c r="B5" s="1">
         <v>32001</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>100001</v>
+        <v>201007</v>
       </c>
       <c r="E5" s="1">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5">
         <v>45573</v>
@@ -991,21 +1013,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>132005</v>
+        <v>132004</v>
       </c>
       <c r="B6" s="1">
         <v>32001</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="E6" s="1">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="F6" s="5">
         <v>45573</v>
@@ -1018,21 +1040,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>132006</v>
+        <v>132005</v>
       </c>
       <c r="B7" s="1">
         <v>32001</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>331002</v>
+        <v>100002</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F7" s="5">
         <v>45573</v>
@@ -1045,18 +1067,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>132007</v>
+        <v>132006</v>
       </c>
       <c r="B8" s="1">
         <v>32001</v>
       </c>
       <c r="C8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>322002</v>
+        <v>331002</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1068,6 +1090,33 @@
         <v>72686</v>
       </c>
       <c r="H8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>132007</v>
+      </c>
+      <c r="B9" s="1">
+        <v>32001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>322002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>45573</v>
+      </c>
+      <c r="G9" s="5">
+        <v>72686</v>
+      </c>
+      <c r="H9" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
